--- a/results/column_summary.xlsx
+++ b/results/column_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a/repo/muni-bond-project/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AE9AB356-F6D3-3E4B-ACEC-16EBC532F3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F780AD-472A-0240-ABC6-242C88635D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="2060" windowWidth="28040" windowHeight="17440" xr2:uid="{F7E5DDC7-C193-1948-9553-1DDE8A25C49F}"/>
   </bookViews>
@@ -1126,9 +1126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F072B0-CAE7-134D-BAEA-98929646B293}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
